--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ntn3-Neo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Neo1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.21799951370542</v>
+        <v>0.248739</v>
       </c>
       <c r="H2">
-        <v>0.21799951370542</v>
+        <v>0.7462169999999999</v>
       </c>
       <c r="I2">
-        <v>0.08745855634810699</v>
+        <v>0.09500454514204523</v>
       </c>
       <c r="J2">
-        <v>0.08745855634810699</v>
+        <v>0.09500454514204522</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.58756078360829</v>
+        <v>5.872120333333332</v>
       </c>
       <c r="N2">
-        <v>5.58756078360829</v>
+        <v>17.616361</v>
       </c>
       <c r="O2">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692768</v>
       </c>
       <c r="P2">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692769</v>
       </c>
       <c r="Q2">
-        <v>1.218085533626083</v>
+        <v>1.460625339593</v>
       </c>
       <c r="R2">
-        <v>1.218085533626083</v>
+        <v>13.145628056337</v>
       </c>
       <c r="S2">
-        <v>0.00662930833657924</v>
+        <v>0.007428817397225868</v>
       </c>
       <c r="T2">
-        <v>0.00662930833657924</v>
+        <v>0.007428817397225868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.21799951370542</v>
+        <v>0.248739</v>
       </c>
       <c r="H3">
-        <v>0.21799951370542</v>
+        <v>0.7462169999999999</v>
       </c>
       <c r="I3">
-        <v>0.08745855634810699</v>
+        <v>0.09500454514204523</v>
       </c>
       <c r="J3">
-        <v>0.08745855634810699</v>
+        <v>0.09500454514204522</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.2513889927486</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N3">
-        <v>59.2513889927486</v>
+        <v>178.879798</v>
       </c>
       <c r="O3">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155241</v>
       </c>
       <c r="P3">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155242</v>
       </c>
       <c r="Q3">
-        <v>12.91677398678987</v>
+        <v>14.831460691574</v>
       </c>
       <c r="R3">
-        <v>12.91677398678987</v>
+        <v>133.483146224166</v>
       </c>
       <c r="S3">
-        <v>0.07029824680490925</v>
+        <v>0.07543359013786384</v>
       </c>
       <c r="T3">
-        <v>0.07029824680490925</v>
+        <v>0.07543359013786384</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.21799951370542</v>
+        <v>0.248739</v>
       </c>
       <c r="H4">
-        <v>0.21799951370542</v>
+        <v>0.7462169999999999</v>
       </c>
       <c r="I4">
-        <v>0.08745855634810699</v>
+        <v>0.09500454514204523</v>
       </c>
       <c r="J4">
-        <v>0.08745855634810699</v>
+        <v>0.09500454514204522</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.210173761745483</v>
+        <v>0.226786</v>
       </c>
       <c r="N4">
-        <v>0.210173761745483</v>
+        <v>0.680358</v>
       </c>
       <c r="O4">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="P4">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="Q4">
-        <v>0.0458177778541541</v>
+        <v>0.05641052285399999</v>
       </c>
       <c r="R4">
-        <v>0.0458177778541541</v>
+        <v>0.5076947056859999</v>
       </c>
       <c r="S4">
-        <v>0.0002493586602148408</v>
+        <v>0.0002869068899497347</v>
       </c>
       <c r="T4">
-        <v>0.0002493586602148408</v>
+        <v>0.0002869068899497346</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.21799951370542</v>
+        <v>0.248739</v>
       </c>
       <c r="H5">
-        <v>0.21799951370542</v>
+        <v>0.7462169999999999</v>
       </c>
       <c r="I5">
-        <v>0.08745855634810699</v>
+        <v>0.09500454514204523</v>
       </c>
       <c r="J5">
-        <v>0.08745855634810699</v>
+        <v>0.09500454514204522</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.66595725625997</v>
+        <v>9.370985666666668</v>
       </c>
       <c r="N5">
-        <v>8.66595725625997</v>
+        <v>28.112957</v>
       </c>
       <c r="O5">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="P5">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="Q5">
-        <v>1.889174467656629</v>
+        <v>2.330929603741</v>
       </c>
       <c r="R5">
-        <v>1.889174467656629</v>
+        <v>20.978366433669</v>
       </c>
       <c r="S5">
-        <v>0.01028164254640366</v>
+        <v>0.01185523071700579</v>
       </c>
       <c r="T5">
-        <v>0.01028164254640366</v>
+        <v>0.01185523071700579</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.96644398621851</v>
+        <v>1.982221333333333</v>
       </c>
       <c r="H6">
-        <v>1.96644398621851</v>
+        <v>5.946664</v>
       </c>
       <c r="I6">
-        <v>0.7889116321905436</v>
+        <v>0.7570989516890869</v>
       </c>
       <c r="J6">
-        <v>0.7889116321905436</v>
+        <v>0.7570989516890868</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.58756078360829</v>
+        <v>5.872120333333332</v>
       </c>
       <c r="N6">
-        <v>5.58756078360829</v>
+        <v>17.616361</v>
       </c>
       <c r="O6">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692768</v>
       </c>
       <c r="P6">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692769</v>
       </c>
       <c r="Q6">
-        <v>10.98762530055691</v>
+        <v>11.63984219663378</v>
       </c>
       <c r="R6">
-        <v>10.98762530055691</v>
+        <v>104.758579769704</v>
       </c>
       <c r="S6">
-        <v>0.05979904858352153</v>
+        <v>0.05920085039426437</v>
       </c>
       <c r="T6">
-        <v>0.05979904858352153</v>
+        <v>0.05920085039426437</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.96644398621851</v>
+        <v>1.982221333333333</v>
       </c>
       <c r="H7">
-        <v>1.96644398621851</v>
+        <v>5.946664</v>
       </c>
       <c r="I7">
-        <v>0.7889116321905436</v>
+        <v>0.7570989516890869</v>
       </c>
       <c r="J7">
-        <v>0.7889116321905436</v>
+        <v>0.7570989516890868</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.2513889927486</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N7">
-        <v>59.2513889927486</v>
+        <v>178.879798</v>
       </c>
       <c r="O7">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155241</v>
       </c>
       <c r="P7">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155242</v>
       </c>
       <c r="Q7">
-        <v>116.5145375598841</v>
+        <v>118.1931172326524</v>
       </c>
       <c r="R7">
-        <v>116.5145375598841</v>
+        <v>1063.738055093872</v>
       </c>
       <c r="S7">
-        <v>0.6341186836683363</v>
+        <v>0.6011364185801047</v>
       </c>
       <c r="T7">
-        <v>0.6341186836683363</v>
+        <v>0.6011364185801047</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.96644398621851</v>
+        <v>1.982221333333333</v>
       </c>
       <c r="H8">
-        <v>1.96644398621851</v>
+        <v>5.946664</v>
       </c>
       <c r="I8">
-        <v>0.7889116321905436</v>
+        <v>0.7570989516890869</v>
       </c>
       <c r="J8">
-        <v>0.7889116321905436</v>
+        <v>0.7570989516890868</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.210173761745483</v>
+        <v>0.226786</v>
       </c>
       <c r="N8">
-        <v>0.210173761745483</v>
+        <v>0.680358</v>
       </c>
       <c r="O8">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="P8">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="Q8">
-        <v>0.413294929845327</v>
+        <v>0.4495400473013334</v>
       </c>
       <c r="R8">
-        <v>0.413294929845327</v>
+        <v>4.045860425712</v>
       </c>
       <c r="S8">
-        <v>0.002249316200097501</v>
+        <v>0.00228638435443852</v>
       </c>
       <c r="T8">
-        <v>0.002249316200097501</v>
+        <v>0.00228638435443852</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.96644398621851</v>
+        <v>1.982221333333333</v>
       </c>
       <c r="H9">
-        <v>1.96644398621851</v>
+        <v>5.946664</v>
       </c>
       <c r="I9">
-        <v>0.7889116321905436</v>
+        <v>0.7570989516890869</v>
       </c>
       <c r="J9">
-        <v>0.7889116321905436</v>
+        <v>0.7570989516890868</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.66595725625997</v>
+        <v>9.370985666666668</v>
       </c>
       <c r="N9">
-        <v>8.66595725625997</v>
+        <v>28.112957</v>
       </c>
       <c r="O9">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="P9">
-        <v>0.1175601676464924</v>
+        <v>0.1247859320759922</v>
       </c>
       <c r="Q9">
-        <v>17.04111953139908</v>
+        <v>18.57536770282756</v>
       </c>
       <c r="R9">
-        <v>17.04111953139908</v>
+        <v>167.178309325448</v>
       </c>
       <c r="S9">
-        <v>0.09274458373858827</v>
+        <v>0.09447529836027928</v>
       </c>
       <c r="T9">
-        <v>0.09274458373858827</v>
+        <v>0.09447529836027926</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.308160114955411</v>
+        <v>0.07456866666666666</v>
       </c>
       <c r="H10">
-        <v>0.308160114955411</v>
+        <v>0.223706</v>
       </c>
       <c r="I10">
-        <v>0.1236298114613495</v>
+        <v>0.02848110774151</v>
       </c>
       <c r="J10">
-        <v>0.1236298114613495</v>
+        <v>0.02848110774151</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.58756078360829</v>
+        <v>5.872120333333332</v>
       </c>
       <c r="N10">
-        <v>5.58756078360829</v>
+        <v>17.616361</v>
       </c>
       <c r="O10">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692768</v>
       </c>
       <c r="P10">
-        <v>0.07579942561815141</v>
+        <v>0.07819433676692769</v>
       </c>
       <c r="Q10">
-        <v>1.721863373397077</v>
+        <v>0.4378761837628888</v>
       </c>
       <c r="R10">
-        <v>1.721863373397077</v>
+        <v>3.940885653865999</v>
       </c>
       <c r="S10">
-        <v>0.009371068698050641</v>
+        <v>0.002227061330234784</v>
       </c>
       <c r="T10">
-        <v>0.009371068698050641</v>
+        <v>0.002227061330234785</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.308160114955411</v>
+        <v>0.07456866666666666</v>
       </c>
       <c r="H11">
-        <v>0.308160114955411</v>
+        <v>0.223706</v>
       </c>
       <c r="I11">
-        <v>0.1236298114613495</v>
+        <v>0.02848110774151</v>
       </c>
       <c r="J11">
-        <v>0.1236298114613495</v>
+        <v>0.02848110774151</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.2513889927486</v>
+        <v>59.62659933333333</v>
       </c>
       <c r="N11">
-        <v>59.2513889927486</v>
+        <v>178.879798</v>
       </c>
       <c r="O11">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155241</v>
       </c>
       <c r="P11">
-        <v>0.8037892430456386</v>
+        <v>0.7939998031155242</v>
       </c>
       <c r="Q11">
-        <v>18.25891484327319</v>
+        <v>4.446276010154222</v>
       </c>
       <c r="R11">
-        <v>18.25891484327319</v>
+        <v>40.01648409138799</v>
       </c>
       <c r="S11">
-        <v>0.0993723125723931</v>
+        <v>0.02261399393927097</v>
       </c>
       <c r="T11">
-        <v>0.0993723125723931</v>
+        <v>0.02261399393927098</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.308160114955411</v>
+        <v>0.07456866666666666</v>
       </c>
       <c r="H12">
-        <v>0.308160114955411</v>
+        <v>0.223706</v>
       </c>
       <c r="I12">
-        <v>0.1236298114613495</v>
+        <v>0.02848110774151</v>
       </c>
       <c r="J12">
-        <v>0.1236298114613495</v>
+        <v>0.02848110774151</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.210173761745483</v>
+        <v>0.226786</v>
       </c>
       <c r="N12">
-        <v>0.210173761745483</v>
+        <v>0.680358</v>
       </c>
       <c r="O12">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="P12">
-        <v>0.002851163689717571</v>
+        <v>0.003019928041555994</v>
       </c>
       <c r="Q12">
-        <v>0.0647671705800992</v>
+        <v>0.01691112963866667</v>
       </c>
       <c r="R12">
-        <v>0.0647671705800992</v>
+        <v>0.152200166748</v>
       </c>
       <c r="S12">
-        <v>0.0003524888294052288</v>
+        <v>8.601089592316358E-05</v>
       </c>
       <c r="T12">
-        <v>0.0003524888294052288</v>
+        <v>8.601089592316358E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.07456866666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.223706</v>
+      </c>
+      <c r="I13">
+        <v>0.02848110774151</v>
+      </c>
+      <c r="J13">
+        <v>0.02848110774151</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.370985666666668</v>
+      </c>
+      <c r="N13">
+        <v>28.112957</v>
+      </c>
+      <c r="O13">
+        <v>0.1247859320759922</v>
+      </c>
+      <c r="P13">
+        <v>0.1247859320759922</v>
+      </c>
+      <c r="Q13">
+        <v>0.6987819065157778</v>
+      </c>
+      <c r="R13">
+        <v>6.289037158642</v>
+      </c>
+      <c r="S13">
+        <v>0.003554041576081082</v>
+      </c>
+      <c r="T13">
+        <v>0.003554041576081082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.312651</v>
+      </c>
+      <c r="H14">
+        <v>0.9379529999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.1194153954273579</v>
+      </c>
+      <c r="J14">
+        <v>0.1194153954273579</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.872120333333332</v>
+      </c>
+      <c r="N14">
+        <v>17.616361</v>
+      </c>
+      <c r="O14">
+        <v>0.07819433676692768</v>
+      </c>
+      <c r="P14">
+        <v>0.07819433676692769</v>
+      </c>
+      <c r="Q14">
+        <v>1.835924294336999</v>
+      </c>
+      <c r="R14">
+        <v>16.523318649033</v>
+      </c>
+      <c r="S14">
+        <v>0.009337607645202662</v>
+      </c>
+      <c r="T14">
+        <v>0.009337607645202662</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.312651</v>
+      </c>
+      <c r="H15">
+        <v>0.9379529999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.1194153954273579</v>
+      </c>
+      <c r="J15">
+        <v>0.1194153954273579</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59.62659933333333</v>
+      </c>
+      <c r="N15">
+        <v>178.879798</v>
+      </c>
+      <c r="O15">
+        <v>0.7939998031155241</v>
+      </c>
+      <c r="P15">
+        <v>0.7939998031155242</v>
+      </c>
+      <c r="Q15">
+        <v>18.642315908166</v>
+      </c>
+      <c r="R15">
+        <v>167.780843173494</v>
+      </c>
+      <c r="S15">
+        <v>0.09481580045828465</v>
+      </c>
+      <c r="T15">
+        <v>0.09481580045828465</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.308160114955411</v>
-      </c>
-      <c r="H13">
-        <v>0.308160114955411</v>
-      </c>
-      <c r="I13">
-        <v>0.1236298114613495</v>
-      </c>
-      <c r="J13">
-        <v>0.1236298114613495</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>8.66595725625997</v>
-      </c>
-      <c r="N13">
-        <v>8.66595725625997</v>
-      </c>
-      <c r="O13">
-        <v>0.1175601676464924</v>
-      </c>
-      <c r="P13">
-        <v>0.1175601676464924</v>
-      </c>
-      <c r="Q13">
-        <v>2.67050238428775</v>
-      </c>
-      <c r="R13">
-        <v>2.67050238428775</v>
-      </c>
-      <c r="S13">
-        <v>0.01453394136150049</v>
-      </c>
-      <c r="T13">
-        <v>0.01453394136150049</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.312651</v>
+      </c>
+      <c r="H16">
+        <v>0.9379529999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.1194153954273579</v>
+      </c>
+      <c r="J16">
+        <v>0.1194153954273579</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.226786</v>
+      </c>
+      <c r="N16">
+        <v>0.680358</v>
+      </c>
+      <c r="O16">
+        <v>0.003019928041555994</v>
+      </c>
+      <c r="P16">
+        <v>0.003019928041555994</v>
+      </c>
+      <c r="Q16">
+        <v>0.07090486968599999</v>
+      </c>
+      <c r="R16">
+        <v>0.638143827174</v>
+      </c>
+      <c r="S16">
+        <v>0.0003606259012445757</v>
+      </c>
+      <c r="T16">
+        <v>0.0003606259012445756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.312651</v>
+      </c>
+      <c r="H17">
+        <v>0.9379529999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.1194153954273579</v>
+      </c>
+      <c r="J17">
+        <v>0.1194153954273579</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.370985666666668</v>
+      </c>
+      <c r="N17">
+        <v>28.112957</v>
+      </c>
+      <c r="O17">
+        <v>0.1247859320759922</v>
+      </c>
+      <c r="P17">
+        <v>0.1247859320759922</v>
+      </c>
+      <c r="Q17">
+        <v>2.929848039669</v>
+      </c>
+      <c r="R17">
+        <v>26.368632357021</v>
+      </c>
+      <c r="S17">
+        <v>0.01490136142262603</v>
+      </c>
+      <c r="T17">
+        <v>0.01490136142262603</v>
       </c>
     </row>
   </sheetData>
